--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Slpi</t>
   </si>
   <si>
     <t>Plscr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.836094171608601</v>
+        <v>0.1027863333333333</v>
       </c>
       <c r="H2">
-        <v>0.836094171608601</v>
+        <v>0.308359</v>
       </c>
       <c r="I2">
-        <v>0.2310526279270106</v>
+        <v>0.009996051618123395</v>
       </c>
       <c r="J2">
-        <v>0.2310526279270106</v>
+        <v>0.01012738921489982</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.3728650206417</v>
+        <v>5.715915666666667</v>
       </c>
       <c r="N2">
-        <v>5.3728650206417</v>
+        <v>17.147747</v>
       </c>
       <c r="O2">
-        <v>0.259010996557499</v>
+        <v>0.2508332176216153</v>
       </c>
       <c r="P2">
-        <v>0.259010996557499</v>
+        <v>0.2565140925817717</v>
       </c>
       <c r="Q2">
-        <v>4.492221128598251</v>
+        <v>0.5875180130192221</v>
       </c>
       <c r="R2">
-        <v>4.492221128598251</v>
+        <v>5.287662117172999</v>
       </c>
       <c r="S2">
-        <v>0.05984517141660406</v>
+        <v>0.002507341790885645</v>
       </c>
       <c r="T2">
-        <v>0.05984517141660406</v>
+        <v>0.002597818054682447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.836094171608601</v>
+        <v>0.1027863333333333</v>
       </c>
       <c r="H3">
-        <v>0.836094171608601</v>
+        <v>0.308359</v>
       </c>
       <c r="I3">
-        <v>0.2310526279270106</v>
+        <v>0.009996051618123395</v>
       </c>
       <c r="J3">
-        <v>0.2310526279270106</v>
+        <v>0.01012738921489982</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.25627462186247</v>
+        <v>7.783483999999999</v>
       </c>
       <c r="N3">
-        <v>7.25627462186247</v>
+        <v>23.350452</v>
       </c>
       <c r="O3">
-        <v>0.3498049762804237</v>
+        <v>0.3415649302546324</v>
       </c>
       <c r="P3">
-        <v>0.3498049762804237</v>
+        <v>0.3493006985788987</v>
       </c>
       <c r="Q3">
-        <v>6.066928918930617</v>
+        <v>0.8000357809186665</v>
       </c>
       <c r="R3">
-        <v>6.066928918930617</v>
+        <v>7.200322028267999</v>
       </c>
       <c r="S3">
-        <v>0.08082335903153752</v>
+        <v>0.003414300673766023</v>
       </c>
       <c r="T3">
-        <v>0.08082335903153752</v>
+        <v>0.00353750412754491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.836094171608601</v>
+        <v>0.1027863333333333</v>
       </c>
       <c r="H4">
-        <v>0.836094171608601</v>
+        <v>0.308359</v>
       </c>
       <c r="I4">
-        <v>0.2310526279270106</v>
+        <v>0.009996051618123395</v>
       </c>
       <c r="J4">
-        <v>0.2310526279270106</v>
+        <v>0.01012738921489982</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.21669696688489</v>
+        <v>3.941461333333333</v>
       </c>
       <c r="N4">
-        <v>3.21669696688489</v>
+        <v>11.824384</v>
       </c>
       <c r="O4">
-        <v>0.155068084497837</v>
+        <v>0.1729643133359471</v>
       </c>
       <c r="P4">
-        <v>0.155068084497837</v>
+        <v>0.1768816120332554</v>
       </c>
       <c r="Q4">
-        <v>2.689461585843522</v>
+        <v>0.4051283584284444</v>
       </c>
       <c r="R4">
-        <v>2.689461585843522</v>
+        <v>3.646155225856</v>
       </c>
       <c r="S4">
-        <v>0.03582888843083298</v>
+        <v>0.001728960204199396</v>
       </c>
       <c r="T4">
-        <v>0.03582888843083298</v>
+        <v>0.001791348930019685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.836094171608601</v>
+        <v>0.1027863333333333</v>
       </c>
       <c r="H5">
-        <v>0.836094171608601</v>
+        <v>0.308359</v>
       </c>
       <c r="I5">
-        <v>0.2310526279270106</v>
+        <v>0.009996051618123395</v>
       </c>
       <c r="J5">
-        <v>0.2310526279270106</v>
+        <v>0.01012738921489982</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.75894534547521</v>
+        <v>3.832852666666666</v>
       </c>
       <c r="N5">
-        <v>3.75894534547521</v>
+        <v>11.498558</v>
       </c>
       <c r="O5">
-        <v>0.1812083825289222</v>
+        <v>0.1681982070967554</v>
       </c>
       <c r="P5">
-        <v>0.1812083825289222</v>
+        <v>0.1720075629392521</v>
       </c>
       <c r="Q5">
-        <v>3.142832294747102</v>
+        <v>0.3939648718135555</v>
       </c>
       <c r="R5">
-        <v>3.142832294747102</v>
+        <v>3.545683846322</v>
       </c>
       <c r="S5">
-        <v>0.04186867298571047</v>
+        <v>0.001681317960214975</v>
       </c>
       <c r="T5">
-        <v>0.04186867298571047</v>
+        <v>0.001741987537792183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.836094171608601</v>
+        <v>0.1027863333333333</v>
       </c>
       <c r="H6">
-        <v>0.836094171608601</v>
+        <v>0.308359</v>
       </c>
       <c r="I6">
-        <v>0.2310526279270106</v>
+        <v>0.009996051618123395</v>
       </c>
       <c r="J6">
-        <v>0.2310526279270106</v>
+        <v>0.01012738921489982</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.13898990058648</v>
+        <v>1.5140005</v>
       </c>
       <c r="N6">
-        <v>1.13898990058648</v>
+        <v>3.028001</v>
       </c>
       <c r="O6">
-        <v>0.05490756013531804</v>
+        <v>0.06643933169104974</v>
       </c>
       <c r="P6">
-        <v>0.05490756013531804</v>
+        <v>0.0452960338668221</v>
       </c>
       <c r="Q6">
-        <v>0.9523028174014159</v>
+        <v>0.1556185600598333</v>
       </c>
       <c r="R6">
-        <v>0.9523028174014159</v>
+        <v>0.9337113603589999</v>
       </c>
       <c r="S6">
-        <v>0.0126865360623256</v>
+        <v>0.0006641309890573547</v>
       </c>
       <c r="T6">
-        <v>0.0126865360623256</v>
+        <v>0.000458730564860591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.78253669664849</v>
+        <v>1.274355333333333</v>
       </c>
       <c r="H7">
-        <v>2.78253669664849</v>
+        <v>3.823066</v>
       </c>
       <c r="I7">
-        <v>0.7689473720729895</v>
+        <v>0.1239320567114712</v>
       </c>
       <c r="J7">
-        <v>0.7689473720729895</v>
+        <v>0.1255603934902182</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.3728650206417</v>
+        <v>5.715915666666667</v>
       </c>
       <c r="N7">
-        <v>5.3728650206417</v>
+        <v>17.147747</v>
       </c>
       <c r="O7">
-        <v>0.259010996557499</v>
+        <v>0.2508332176216153</v>
       </c>
       <c r="P7">
-        <v>0.259010996557499</v>
+        <v>0.2565140925817717</v>
       </c>
       <c r="Q7">
-        <v>14.95019408607458</v>
+        <v>7.284107614700222</v>
       </c>
       <c r="R7">
-        <v>14.95019408607458</v>
+        <v>65.55696853230199</v>
       </c>
       <c r="S7">
-        <v>0.199165825140895</v>
+        <v>0.03108627655140282</v>
       </c>
       <c r="T7">
-        <v>0.199165825140895</v>
+        <v>0.0322080104003535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.78253669664849</v>
+        <v>1.274355333333333</v>
       </c>
       <c r="H8">
-        <v>2.78253669664849</v>
+        <v>3.823066</v>
       </c>
       <c r="I8">
-        <v>0.7689473720729895</v>
+        <v>0.1239320567114712</v>
       </c>
       <c r="J8">
-        <v>0.7689473720729895</v>
+        <v>0.1255603934902182</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.25627462186247</v>
+        <v>7.783483999999999</v>
       </c>
       <c r="N8">
-        <v>7.25627462186247</v>
+        <v>23.350452</v>
       </c>
       <c r="O8">
-        <v>0.3498049762804237</v>
+        <v>0.3415649302546324</v>
       </c>
       <c r="P8">
-        <v>0.3498049762804237</v>
+        <v>0.3493006985788987</v>
       </c>
       <c r="Q8">
-        <v>20.19085041629147</v>
+        <v>9.918924347314665</v>
       </c>
       <c r="R8">
-        <v>20.19085041629147</v>
+        <v>89.27031912583199</v>
       </c>
       <c r="S8">
-        <v>0.2689816172488862</v>
+        <v>0.0423308443069668</v>
       </c>
       <c r="T8">
-        <v>0.2689816172488862</v>
+        <v>0.04385833315997461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.78253669664849</v>
+        <v>1.274355333333333</v>
       </c>
       <c r="H9">
-        <v>2.78253669664849</v>
+        <v>3.823066</v>
       </c>
       <c r="I9">
-        <v>0.7689473720729895</v>
+        <v>0.1239320567114712</v>
       </c>
       <c r="J9">
-        <v>0.7689473720729895</v>
+        <v>0.1255603934902182</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.21669696688489</v>
+        <v>3.941461333333333</v>
       </c>
       <c r="N9">
-        <v>3.21669696688489</v>
+        <v>11.824384</v>
       </c>
       <c r="O9">
-        <v>0.155068084497837</v>
+        <v>0.1729643133359471</v>
       </c>
       <c r="P9">
-        <v>0.155068084497837</v>
+        <v>0.1768816120332554</v>
       </c>
       <c r="Q9">
-        <v>8.950577352355099</v>
+        <v>5.022822271260444</v>
       </c>
       <c r="R9">
-        <v>8.950577352355099</v>
+        <v>45.205400441344</v>
       </c>
       <c r="S9">
-        <v>0.119239196067004</v>
+        <v>0.02143582308941126</v>
       </c>
       <c r="T9">
-        <v>0.119239196067004</v>
+        <v>0.02220932480807966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.78253669664849</v>
+        <v>1.274355333333333</v>
       </c>
       <c r="H10">
-        <v>2.78253669664849</v>
+        <v>3.823066</v>
       </c>
       <c r="I10">
-        <v>0.7689473720729895</v>
+        <v>0.1239320567114712</v>
       </c>
       <c r="J10">
-        <v>0.7689473720729895</v>
+        <v>0.1255603934902182</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.75894534547521</v>
+        <v>3.832852666666666</v>
       </c>
       <c r="N10">
-        <v>3.75894534547521</v>
+        <v>11.498558</v>
       </c>
       <c r="O10">
-        <v>0.1812083825289222</v>
+        <v>0.1681982070967554</v>
       </c>
       <c r="P10">
-        <v>0.1812083825289222</v>
+        <v>0.1720075629392521</v>
       </c>
       <c r="Q10">
-        <v>10.45940336448081</v>
+        <v>4.884416237647555</v>
       </c>
       <c r="R10">
-        <v>10.45940336448081</v>
+        <v>43.959746138828</v>
       </c>
       <c r="S10">
-        <v>0.1393397095432117</v>
+        <v>0.02084514974068286</v>
       </c>
       <c r="T10">
-        <v>0.1393397095432117</v>
+        <v>0.02159733728594596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.274355333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.823066</v>
+      </c>
+      <c r="I11">
+        <v>0.1239320567114712</v>
+      </c>
+      <c r="J11">
+        <v>0.1255603934902182</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.5140005</v>
+      </c>
+      <c r="N11">
+        <v>3.028001</v>
+      </c>
+      <c r="O11">
+        <v>0.06643933169104974</v>
+      </c>
+      <c r="P11">
+        <v>0.0452960338668221</v>
+      </c>
+      <c r="Q11">
+        <v>1.929374611844333</v>
+      </c>
+      <c r="R11">
+        <v>11.576247671066</v>
+      </c>
+      <c r="S11">
+        <v>0.008233963023007419</v>
+      </c>
+      <c r="T11">
+        <v>0.005687387835864431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>2.675659333333333</v>
+      </c>
+      <c r="H12">
+        <v>8.026978</v>
+      </c>
+      <c r="I12">
+        <v>0.2602099709284986</v>
+      </c>
+      <c r="J12">
+        <v>0.2636288560588084</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.715915666666667</v>
+      </c>
+      <c r="N12">
+        <v>17.147747</v>
+      </c>
+      <c r="O12">
+        <v>0.2508332176216153</v>
+      </c>
+      <c r="P12">
+        <v>0.2565140925817717</v>
+      </c>
+      <c r="Q12">
+        <v>15.29384310206289</v>
+      </c>
+      <c r="R12">
+        <v>137.644587918566</v>
+      </c>
+      <c r="S12">
+        <v>0.06526930426522229</v>
+      </c>
+      <c r="T12">
+        <v>0.06762451679029573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>2.675659333333333</v>
+      </c>
+      <c r="H13">
+        <v>8.026978</v>
+      </c>
+      <c r="I13">
+        <v>0.2602099709284986</v>
+      </c>
+      <c r="J13">
+        <v>0.2636288560588084</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.783483999999999</v>
+      </c>
+      <c r="N13">
+        <v>23.350452</v>
+      </c>
+      <c r="O13">
+        <v>0.3415649302546324</v>
+      </c>
+      <c r="P13">
+        <v>0.3493006985788987</v>
+      </c>
+      <c r="Q13">
+        <v>20.82595161045066</v>
+      </c>
+      <c r="R13">
+        <v>187.433564494056</v>
+      </c>
+      <c r="S13">
+        <v>0.08887860057175256</v>
+      </c>
+      <c r="T13">
+        <v>0.09208574358689768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>2.675659333333333</v>
+      </c>
+      <c r="H14">
+        <v>8.026978</v>
+      </c>
+      <c r="I14">
+        <v>0.2602099709284986</v>
+      </c>
+      <c r="J14">
+        <v>0.2636288560588084</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.941461333333333</v>
+      </c>
+      <c r="N14">
+        <v>11.824384</v>
+      </c>
+      <c r="O14">
+        <v>0.1729643133359471</v>
+      </c>
+      <c r="P14">
+        <v>0.1768816120332554</v>
+      </c>
+      <c r="Q14">
+        <v>10.54600780350578</v>
+      </c>
+      <c r="R14">
+        <v>94.914070231552</v>
+      </c>
+      <c r="S14">
+        <v>0.04500703894481451</v>
+      </c>
+      <c r="T14">
+        <v>0.04663109703816508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.78253669664849</v>
-      </c>
-      <c r="H11">
-        <v>2.78253669664849</v>
-      </c>
-      <c r="I11">
-        <v>0.7689473720729895</v>
-      </c>
-      <c r="J11">
-        <v>0.7689473720729895</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.13898990058648</v>
-      </c>
-      <c r="N11">
-        <v>1.13898990058648</v>
-      </c>
-      <c r="O11">
-        <v>0.05490756013531804</v>
-      </c>
-      <c r="P11">
-        <v>0.05490756013531804</v>
-      </c>
-      <c r="Q11">
-        <v>3.169281195493896</v>
-      </c>
-      <c r="R11">
-        <v>3.169281195493896</v>
-      </c>
-      <c r="S11">
-        <v>0.04222102407299245</v>
-      </c>
-      <c r="T11">
-        <v>0.04222102407299245</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>2.675659333333333</v>
+      </c>
+      <c r="H15">
+        <v>8.026978</v>
+      </c>
+      <c r="I15">
+        <v>0.2602099709284986</v>
+      </c>
+      <c r="J15">
+        <v>0.2636288560588084</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.832852666666666</v>
+      </c>
+      <c r="N15">
+        <v>11.498558</v>
+      </c>
+      <c r="O15">
+        <v>0.1681982070967554</v>
+      </c>
+      <c r="P15">
+        <v>0.1720075629392521</v>
+      </c>
+      <c r="Q15">
+        <v>10.25540801085822</v>
+      </c>
+      <c r="R15">
+        <v>92.29867209772399</v>
+      </c>
+      <c r="S15">
+        <v>0.04376685057887231</v>
+      </c>
+      <c r="T15">
+        <v>0.0453461570511385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>2.675659333333333</v>
+      </c>
+      <c r="H16">
+        <v>8.026978</v>
+      </c>
+      <c r="I16">
+        <v>0.2602099709284986</v>
+      </c>
+      <c r="J16">
+        <v>0.2636288560588084</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.5140005</v>
+      </c>
+      <c r="N16">
+        <v>3.028001</v>
+      </c>
+      <c r="O16">
+        <v>0.06643933169104974</v>
+      </c>
+      <c r="P16">
+        <v>0.0452960338668221</v>
+      </c>
+      <c r="Q16">
+        <v>4.050949568496333</v>
+      </c>
+      <c r="R16">
+        <v>24.305697410978</v>
+      </c>
+      <c r="S16">
+        <v>0.01728817656783693</v>
+      </c>
+      <c r="T16">
+        <v>0.01194134159231135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.829837333333334</v>
+      </c>
+      <c r="H17">
+        <v>17.489512</v>
+      </c>
+      <c r="I17">
+        <v>0.566956257893522</v>
+      </c>
+      <c r="J17">
+        <v>0.5744054663644029</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.715915666666667</v>
+      </c>
+      <c r="N17">
+        <v>17.147747</v>
+      </c>
+      <c r="O17">
+        <v>0.2508332176216153</v>
+      </c>
+      <c r="P17">
+        <v>0.2565140925817717</v>
+      </c>
+      <c r="Q17">
+        <v>33.32285854771823</v>
+      </c>
+      <c r="R17">
+        <v>299.905726929464</v>
+      </c>
+      <c r="S17">
+        <v>0.1422114624181424</v>
+      </c>
+      <c r="T17">
+        <v>0.1473430969784742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.829837333333334</v>
+      </c>
+      <c r="H18">
+        <v>17.489512</v>
+      </c>
+      <c r="I18">
+        <v>0.566956257893522</v>
+      </c>
+      <c r="J18">
+        <v>0.5744054663644029</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.783483999999999</v>
+      </c>
+      <c r="N18">
+        <v>23.350452</v>
+      </c>
+      <c r="O18">
+        <v>0.3415649302546324</v>
+      </c>
+      <c r="P18">
+        <v>0.3493006985788987</v>
+      </c>
+      <c r="Q18">
+        <v>45.37644560660267</v>
+      </c>
+      <c r="R18">
+        <v>408.388010459424</v>
+      </c>
+      <c r="S18">
+        <v>0.1936523746848282</v>
+      </c>
+      <c r="T18">
+        <v>0.200640230668624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.829837333333334</v>
+      </c>
+      <c r="H19">
+        <v>17.489512</v>
+      </c>
+      <c r="I19">
+        <v>0.566956257893522</v>
+      </c>
+      <c r="J19">
+        <v>0.5744054663644029</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.941461333333333</v>
+      </c>
+      <c r="N19">
+        <v>11.824384</v>
+      </c>
+      <c r="O19">
+        <v>0.1729643133359471</v>
+      </c>
+      <c r="P19">
+        <v>0.1768816120332554</v>
+      </c>
+      <c r="Q19">
+        <v>22.97807842895645</v>
+      </c>
+      <c r="R19">
+        <v>206.802705860608</v>
+      </c>
+      <c r="S19">
+        <v>0.09806319983807114</v>
+      </c>
+      <c r="T19">
+        <v>0.1016017648512495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.829837333333334</v>
+      </c>
+      <c r="H20">
+        <v>17.489512</v>
+      </c>
+      <c r="I20">
+        <v>0.566956257893522</v>
+      </c>
+      <c r="J20">
+        <v>0.5744054663644029</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.832852666666666</v>
+      </c>
+      <c r="N20">
+        <v>11.498558</v>
+      </c>
+      <c r="O20">
+        <v>0.1681982070967554</v>
+      </c>
+      <c r="P20">
+        <v>0.1720075629392521</v>
+      </c>
+      <c r="Q20">
+        <v>22.34490756929955</v>
+      </c>
+      <c r="R20">
+        <v>201.104168123696</v>
+      </c>
+      <c r="S20">
+        <v>0.09536102607997606</v>
+      </c>
+      <c r="T20">
+        <v>0.09880208440832547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.829837333333334</v>
+      </c>
+      <c r="H21">
+        <v>17.489512</v>
+      </c>
+      <c r="I21">
+        <v>0.566956257893522</v>
+      </c>
+      <c r="J21">
+        <v>0.5744054663644029</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.5140005</v>
+      </c>
+      <c r="N21">
+        <v>3.028001</v>
+      </c>
+      <c r="O21">
+        <v>0.06643933169104974</v>
+      </c>
+      <c r="P21">
+        <v>0.0452960338668221</v>
+      </c>
+      <c r="Q21">
+        <v>8.826376637585334</v>
+      </c>
+      <c r="R21">
+        <v>52.958259825512</v>
+      </c>
+      <c r="S21">
+        <v>0.03766819487250404</v>
+      </c>
+      <c r="T21">
+        <v>0.02601828945772974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.400055</v>
+      </c>
+      <c r="H22">
+        <v>0.80011</v>
+      </c>
+      <c r="I22">
+        <v>0.03890566284838472</v>
+      </c>
+      <c r="J22">
+        <v>0.02627789487167066</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.715915666666667</v>
+      </c>
+      <c r="N22">
+        <v>17.147747</v>
+      </c>
+      <c r="O22">
+        <v>0.2508332176216153</v>
+      </c>
+      <c r="P22">
+        <v>0.2565140925817717</v>
+      </c>
+      <c r="Q22">
+        <v>2.286680642028333</v>
+      </c>
+      <c r="R22">
+        <v>13.72008385217</v>
+      </c>
+      <c r="S22">
+        <v>0.009758832595962079</v>
+      </c>
+      <c r="T22">
+        <v>0.006740650357965789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.400055</v>
+      </c>
+      <c r="H23">
+        <v>0.80011</v>
+      </c>
+      <c r="I23">
+        <v>0.03890566284838472</v>
+      </c>
+      <c r="J23">
+        <v>0.02627789487167066</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.783483999999999</v>
+      </c>
+      <c r="N23">
+        <v>23.350452</v>
+      </c>
+      <c r="O23">
+        <v>0.3415649302546324</v>
+      </c>
+      <c r="P23">
+        <v>0.3493006985788987</v>
+      </c>
+      <c r="Q23">
+        <v>3.11382169162</v>
+      </c>
+      <c r="R23">
+        <v>18.68293014972</v>
+      </c>
+      <c r="S23">
+        <v>0.01328881001731877</v>
+      </c>
+      <c r="T23">
+        <v>0.00917888703585742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.400055</v>
+      </c>
+      <c r="H24">
+        <v>0.80011</v>
+      </c>
+      <c r="I24">
+        <v>0.03890566284838472</v>
+      </c>
+      <c r="J24">
+        <v>0.02627789487167066</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.941461333333333</v>
+      </c>
+      <c r="N24">
+        <v>11.824384</v>
+      </c>
+      <c r="O24">
+        <v>0.1729643133359471</v>
+      </c>
+      <c r="P24">
+        <v>0.1768816120332554</v>
+      </c>
+      <c r="Q24">
+        <v>1.576801313706667</v>
+      </c>
+      <c r="R24">
+        <v>9.460807882239999</v>
+      </c>
+      <c r="S24">
+        <v>0.00672929125945073</v>
+      </c>
+      <c r="T24">
+        <v>0.004648076405741521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.400055</v>
+      </c>
+      <c r="H25">
+        <v>0.80011</v>
+      </c>
+      <c r="I25">
+        <v>0.03890566284838472</v>
+      </c>
+      <c r="J25">
+        <v>0.02627789487167066</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.832852666666666</v>
+      </c>
+      <c r="N25">
+        <v>11.498558</v>
+      </c>
+      <c r="O25">
+        <v>0.1681982070967554</v>
+      </c>
+      <c r="P25">
+        <v>0.1720075629392521</v>
+      </c>
+      <c r="Q25">
+        <v>1.533351873563333</v>
+      </c>
+      <c r="R25">
+        <v>9.200111241379998</v>
+      </c>
+      <c r="S25">
+        <v>0.006543862737009155</v>
+      </c>
+      <c r="T25">
+        <v>0.004519996656049939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.400055</v>
+      </c>
+      <c r="H26">
+        <v>0.80011</v>
+      </c>
+      <c r="I26">
+        <v>0.03890566284838472</v>
+      </c>
+      <c r="J26">
+        <v>0.02627789487167066</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.5140005</v>
+      </c>
+      <c r="N26">
+        <v>3.028001</v>
+      </c>
+      <c r="O26">
+        <v>0.06643933169104974</v>
+      </c>
+      <c r="P26">
+        <v>0.0452960338668221</v>
+      </c>
+      <c r="Q26">
+        <v>0.6056834700274999</v>
+      </c>
+      <c r="R26">
+        <v>2.42273388011</v>
+      </c>
+      <c r="S26">
+        <v>0.002584866238643983</v>
+      </c>
+      <c r="T26">
+        <v>0.001190284416055985</v>
       </c>
     </row>
   </sheetData>
